--- a/dandem_demens_v100_export.xlsx
+++ b/dandem_demens_v100_export.xlsx
@@ -434,7 +434,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="34" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
     <col width="46" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RUDAS</t>
+          <t>ExtendedNeuroAssessment</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -505,12 +505,12 @@
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -520,19 +520,19 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MCE</t>
+          <t>NPHAssessment</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,41 +544,51 @@
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Diagnosis</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Trinvold_DSQIID</t>
+          <t>EtiologicalDiagnosis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
-          <t>StatusCode</t>
+          <t>DiagnosisCode</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -586,9 +596,19 @@
           <t>str, Enum</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "alzheimer_sygdom" | "lewy_body_sygdom" | "parkinson_sygdom" | "cerebrovaskulaer_sygdom" | "mixed_alzheimer_cerebrovaskulaer" | "frontotemporal_demens" | "atypisk_parkinson_msa_cbs_psp" | "normaltryks_hydrocephalus_nph" | "huntingtons_sygdom" | "alkohol" | "anden_specifik_neurodegenerativ_sygdom" | "anden_ikke_neurodegenerativ_sygdom" | "psykiatrisk_sygdom" | "uafklaret_aetiologi" | "ikke_relevant" | </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -600,7 +620,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ADSC_ADL</t>
+          <t>DAD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -622,7 +642,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 78</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 40</t>
         </is>
       </c>
     </row>
@@ -634,7 +654,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CAMcog</t>
+          <t>ACE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -656,7 +676,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 105</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
         </is>
       </c>
     </row>
@@ -668,7 +688,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MoCa</t>
+          <t>MMSE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -702,7 +722,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ACE</t>
+          <t>RUDAS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -722,9 +742,14 @@
           <t>Integer</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
         </is>
       </c>
     </row>
@@ -736,7 +761,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FAQ_IADL</t>
+          <t>ADSC_ADL</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -758,7 +783,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 78</t>
         </is>
       </c>
     </row>
@@ -770,7 +795,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DAD</t>
+          <t>MoCa</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -792,7 +817,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 40</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
         </is>
       </c>
     </row>
@@ -804,17 +829,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CognitiveImpairment</t>
+          <t>MCE</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>
@@ -826,22 +846,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "kognitiv_intakt" | "kognitiv_svaekkelse" | "demens_let_grad" | "demens_moderat_grad" | "demens_svaer_grad" | </t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
         </is>
       </c>
     </row>
@@ -853,19 +863,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SupportPersonPresent</t>
+          <t>CognitiveImpairment</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="D23" t="inlineStr">
         <is>
-          <t>StatusCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -880,7 +895,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "habituel_kognitiv_funktion" | "kognitiv_svaekkelse" | "demens_let_grad" | "demens_moderat_grad" | "demens_svaer_grad" | </t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -892,7 +912,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MMSE</t>
+          <t>Trinvold</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -904,17 +924,17 @@
     <row r="25">
       <c r="D25" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>StatusCode</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -926,7 +946,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BASIC</t>
+          <t>SupportPersonPresent</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -938,29 +958,34 @@
     <row r="27">
       <c r="D27" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>StatusCode</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 25</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NPHAssessment</t>
+          <t>DSQIID</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -972,34 +997,29 @@
     <row r="29">
       <c r="D29" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>StatusCode</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ExtendedNeuroAssessment</t>
+          <t>CAMcog</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1011,120 +1031,85 @@
     <row r="31">
       <c r="D31" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 105</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Diagnosis</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>EtiologicalDiagnosis</t>
+          <t>BASIC</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="D33" t="inlineStr">
         <is>
-          <t>DiagnosisCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "alzheimer_sygdom" | "lewy_body_sygdom" | "parkinson_sygdom" | "cerebrovaskulaer_sygdom" | "mixed_alzheimer_cerebrovaskulaer" | "frontotemporal_demens" | "atypisk_parkinson_msa_cbs_psp" | "normaltryks_hydrocephalus_nph" | "huntingtons_sygdom" | "alkohol" | "anden_specifik_neurodegenerativ_sygdom" | "anden_ikke_neurodegenerativ_sygdom" | "psykiatrisk_sygdom" | "uafklaret_aetiologi" | "ikke_relevant" | </t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>InformDiagnosis</t>
+          <t>FAQ_IADL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="D35" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
         </is>
       </c>
     </row>
@@ -1136,13 +1121,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ReferralFreeChoice</t>
+          <t>InformDiagnosis</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fritvalgshenvisning modtaget
-</t>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -1167,6 +1156,11 @@
           <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1176,7 +1170,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ReferralCommunalCoordinator</t>
+          <t>MunicipalDementiaCoordinator</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">

--- a/dandem_demens_v100_export.xlsx
+++ b/dandem_demens_v100_export.xlsx
@@ -488,29 +488,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Diagnosis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ExtendedNeuroAssessment</t>
+          <t>EtiologicalDiagnosis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>DiagnosisCode</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -520,36 +525,41 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "alzheimer_sygdom" | "lewy_body_sygdom" | "parkinson_sygdom" | "cerebrovaskulaer_sygdom" | "mixed_alzheimer_cerebrovaskulaer" | "frontotemporal_demens" | "atypisk_parkinson_msa_cbs_psp" | "normaltryks_hydrocephalus_nph" | "huntingtons_sygdom" | "alkohol" | "anden_specifik_neurodegenerativ_sygdom" | "anden_ikke_neurodegenerativ_sygdom" | "psykiatrisk_sygdom" | "uafklaret_aetiologi" | "ikke_relevant" | </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NPHAssessment</t>
+          <t>MunicipalDementiaCoordinator</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Kommunal demenskoordinator henvisning</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>StatusCode</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -559,19 +569,19 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Diagnosis</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EtiologicalDiagnosis</t>
+          <t>InformDiagnosis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -588,12 +598,12 @@
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
-          <t>DiagnosisCode</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -603,7 +613,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "alzheimer_sygdom" | "lewy_body_sygdom" | "parkinson_sygdom" | "cerebrovaskulaer_sygdom" | "mixed_alzheimer_cerebrovaskulaer" | "frontotemporal_demens" | "atypisk_parkinson_msa_cbs_psp" | "normaltryks_hydrocephalus_nph" | "huntingtons_sygdom" | "alkohol" | "anden_specifik_neurodegenerativ_sygdom" | "anden_ikke_neurodegenerativ_sygdom" | "psykiatrisk_sygdom" | "uafklaret_aetiologi" | "ikke_relevant" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -615,12 +625,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DAD</t>
+          <t>Referral</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -637,623 +647,613 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "primaer_demensudredning_henvist_direkte" | "second_opinion" | "patient_oensker_ikke_yderligere_undersoegelser" | "omvisiteret_fritvalgspatient_til_primaer_udredning" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Hvis 'Omvisiteret' er valgt, skal der angives en dato.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ExtendedNeuroAssessment</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NPHAssessment</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CAMcog</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 105</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ACE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DAD</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>Greater than or equal to: 0 | Less than or equal to: 40</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ACE</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Trinvold</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>RUDAS</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" t="inlineStr">
         <is>
           <t>ResultValue</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DSQIID</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MMSE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FAQ_IADL</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CognitiveImpairment</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "habituel_kognitiv_funktion" | "kognitiv_svaekkelse" | "demens_let_grad" | "demens_moderat_grad" | "demens_svaer_grad" | </t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MoCa</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MCE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
         <is>
           <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>MMSE</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="D13" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ADSC_ADL</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" t="inlineStr">
         <is>
           <t>ResultValue</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>RUDAS</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ADSC_ADL</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Greater than or equal to: 0 | Less than or equal to: 78</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MoCa</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>MCE</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CognitiveImpairment</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SupportPersonPresent</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "habituel_kognitiv_funktion" | "kognitiv_svaekkelse" | "demens_let_grad" | "demens_moderat_grad" | "demens_svaer_grad" | </t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Trinvold</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>StatusCode</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>SupportPersonPresent</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>StatusCode</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>DSQIID</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>StatusCode</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>CAMcog</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 105</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>BASIC</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 25</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>FAQ_IADL</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>InformDiagnosis</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>MunicipalDementiaCoordinator</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Kommunal demenskoordinator henvisning</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>StatusCode</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Referral</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "primaer_demensudredning_henvist_direkte" | "second_opinion" | "patient_oensker_ikke_yderligere_undersoegelser" | "omvisiteret_fritvalgspatient_til_primaer_udredning" | </t>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="D42" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Hvis 'Omvisiteret' er valgt, skal der angives en dato.</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 25</t>
         </is>
       </c>
     </row>

--- a/dandem_demens_v100_export.xlsx
+++ b/dandem_demens_v100_export.xlsx
@@ -542,117 +542,112 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MunicipalDementiaCoordinator</t>
+          <t>Referral</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kommunal demenskoordinator henvisning</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "primaer_demensudredning_henvist_direkte" | "second_opinion" | "patient_oensker_ikke_yderligere_undersoegelser" | "omvisiteret_fritvalgspatient_til_primaer_udredning" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hvis 'Omvisiteret' er valgt, skal der angives en dato.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MunicipalDementiaCoordinator</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Kommunal demenskoordinator henvisning</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
           <t>StatusCode</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>InformDiagnosis</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Referral</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "primaer_demensudredning_henvist_direkte" | "second_opinion" | "patient_oensker_ikke_yderligere_undersoegelser" | "omvisiteret_fritvalgspatient_til_primaer_udredning" | </t>
         </is>
       </c>
     </row>
@@ -669,24 +664,29 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Hvis 'Omvisiteret' er valgt, skal der angives en dato.</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ExtendedNeuroAssessment</t>
+          <t>CAMcog</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -698,34 +698,29 @@
     <row r="12">
       <c r="D12" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 105</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NPHAssessment</t>
+          <t>DAD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -737,22 +732,17 @@
     <row r="14">
       <c r="D14" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 40</t>
         </is>
       </c>
     </row>
@@ -764,7 +754,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CAMcog</t>
+          <t>DSQIID</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -776,17 +766,17 @@
     <row r="16">
       <c r="D16" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>StatusCode</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 105</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -798,7 +788,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ACE</t>
+          <t>Trinvold</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -810,17 +800,17 @@
     <row r="18">
       <c r="D18" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>StatusCode</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
@@ -832,7 +822,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DAD</t>
+          <t>BASIC</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -854,7 +844,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 40</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 25</t>
         </is>
       </c>
     </row>
@@ -866,7 +856,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Trinvold</t>
+          <t>ADSC_ADL</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -878,17 +868,17 @@
     <row r="22">
       <c r="D22" t="inlineStr">
         <is>
-          <t>StatusCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 78</t>
         </is>
       </c>
     </row>
@@ -900,7 +890,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RUDAS</t>
+          <t>ACE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -920,14 +910,9 @@
           <t>Integer</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
         </is>
       </c>
     </row>
@@ -939,7 +924,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DSQIID</t>
+          <t>MCE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -951,17 +936,17 @@
     <row r="26">
       <c r="D26" t="inlineStr">
         <is>
-          <t>StatusCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
         </is>
       </c>
     </row>
@@ -973,7 +958,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MMSE</t>
+          <t>SupportPersonPresent</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -985,17 +970,22 @@
     <row r="28">
       <c r="D28" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>StatusCode</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
         </is>
       </c>
     </row>
@@ -1007,7 +997,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FAQ_IADL</t>
+          <t>MoCa</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1041,17 +1031,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CognitiveImpairment</t>
+          <t>MMSE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>
@@ -1063,22 +1048,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "habituel_kognitiv_funktion" | "kognitiv_svaekkelse" | "demens_let_grad" | "demens_moderat_grad" | "demens_svaer_grad" | </t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
         </is>
       </c>
     </row>
@@ -1090,7 +1065,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MoCa</t>
+          <t>RUDAS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1110,6 +1085,11 @@
           <t>Integer</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
           <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
@@ -1124,7 +1104,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MCE</t>
+          <t>FAQ_IADL</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1146,7 +1126,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
         </is>
       </c>
     </row>
@@ -1158,12 +1138,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ADSC_ADL</t>
+          <t>CognitiveImpairment</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -1175,24 +1160,34 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 78</t>
+          <t xml:space="preserve">Enums/Udfald: | "habituel_kognitiv_funktion" | "kognitiv_svaekkelse" | "demens_let_grad" | "demens_moderat_grad" | "demens_svaer_grad" | </t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SupportPersonPresent</t>
+          <t>NPHAssessment</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1204,12 +1199,12 @@
     <row r="40">
       <c r="D40" t="inlineStr">
         <is>
-          <t>StatusCode</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1219,19 +1214,19 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BASIC</t>
+          <t>ExtendedNeuroAssessment</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1243,17 +1238,22 @@
     <row r="42">
       <c r="D42" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 25</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>

--- a/dandem_demens_v100_export.xlsx
+++ b/dandem_demens_v100_export.xlsx
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Diagnosis</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EtiologicalDiagnosis</t>
+          <t>CognitiveImpairment</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -510,7 +510,7 @@
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
-          <t>DiagnosisCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "alzheimer_sygdom" | "lewy_body_sygdom" | "parkinson_sygdom" | "cerebrovaskulaer_sygdom" | "mixed_alzheimer_cerebrovaskulaer" | "frontotemporal_demens" | "atypisk_parkinson_msa_cbs_psp" | "normaltryks_hydrocephalus_nph" | "huntingtons_sygdom" | "alkohol" | "anden_specifik_neurodegenerativ_sygdom" | "anden_ikke_neurodegenerativ_sygdom" | "psykiatrisk_sygdom" | "uafklaret_aetiologi" | "ikke_relevant" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "habituel_kognitiv_funktion" | "kognitiv_svaekkelse" | "demens_let_grad" | "demens_moderat_grad" | "demens_svaer_grad" | </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -537,12 +537,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Referral</t>
+          <t>MMSE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,530 +559,520 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CAMcog</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 105</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RUDAS</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SupportPersonPresent</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ADSC_ADL</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 78</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MCE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DAD</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 40</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Trinvold</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>BASIC</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ACE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FAQ_IADL</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MoCa</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DSQIID</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Referral</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "primaer_demensudredning_henvist_direkte" | "second_opinion" | "patient_oensker_ikke_yderligere_undersoegelser" | "omvisiteret_fritvalgspatient_til_primaer_udredning" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Hvis 'Omvisiteret' er valgt, skal der angives en dato.</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MunicipalDementiaCoordinator</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Kommunal demenskoordinator henvisning</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>StatusCode</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>InformDiagnosis</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CAMcog</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 105</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>DAD</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 40</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>DSQIID</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>StatusCode</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Trinvold</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>StatusCode</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>BASIC</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 25</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ADSC_ADL</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 78</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ACE</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>MCE</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>SupportPersonPresent</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>StatusCode</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>MoCa</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>MMSE</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="D32" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Hvis 'Omvisiteret' er valgt, skal der angives en dato.</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RUDAS</t>
+          <t>InformDiagnosis</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="D34" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1092,75 +1082,80 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FAQ_IADL</t>
+          <t>MunicipalDementiaCoordinator</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Kommunal demenskoordinator henvisning</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="D36" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>StatusCode</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CognitiveImpairment</t>
+          <t>NPHAssessment</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="D38" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1170,12 +1165,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "habituel_kognitiv_funktion" | "kognitiv_svaekkelse" | "demens_let_grad" | "demens_moderat_grad" | "demens_svaer_grad" | </t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1177,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NPHAssessment</t>
+          <t>ExtendedNeuroAssessment</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1221,29 +1211,34 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Diagnosis</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ExtendedNeuroAssessment</t>
+          <t>EtiologicalDiagnosis</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="D42" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>DiagnosisCode</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1253,7 +1248,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "alzheimer_sygdom" | "lewy_body_sygdom" | "parkinson_sygdom" | "cerebrovaskulaer_sygdom" | "mixed_alzheimer_cerebrovaskulaer" | "frontotemporal_demens" | "atypisk_parkinson_msa_cbs_psp" | "normaltryks_hydrocephalus_nph" | "huntingtons_sygdom" | "alkohol" | "anden_specifik_neurodegenerativ_sygdom" | "anden_ikke_neurodegenerativ_sygdom" | "psykiatrisk_sygdom" | "uafklaret_aetiologi" | "ikke_relevant" | </t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
